--- a/flashcards/Memcode - KS Privatrecht I - 2. Test (JKU, Austria).xlsx
+++ b/flashcards/Memcode - KS Privatrecht I - 2. Test (JKU, Austria).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Question</t>
   </si>
@@ -19,6 +19,126 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;Wann hätte ein Irrtum dem Gegner &lt;strong&gt;offenbar auffallen &lt;/strong&gt;müssen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong style="background-color: lightgrey;"&gt;Offenbar auffallen&lt;/strong&gt;&lt;span style="background-color: lightgrey;"&gt; muss der Irrtum, wenn er &lt;/span&gt;&lt;strong style="background-color: lightgrey;"&gt;bei verkehrsüblicher Sorgfalt erkennbar&lt;/strong&gt;&lt;span style="background-color: lightgrey;"&gt; gewesen wäre oder der Partner wenigstens &lt;/span&gt;&lt;strong style="background-color: lightgrey;"&gt;Verdacht hätte schöpfen müssen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color: lightgrey;"&gt;→ Gegner hat also fahrlässig den Irrtum nicht entdeckt&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Vertrauensschaden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Jener Schaden, der durch die &lt;strong&gt;Täuschung entstanden&lt;/strong&gt; ist -&amp;gt; der Getäuschte ist so zu stellen, wie er ohne die Täuschung stünde. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 4 Fallprüfungsstufen für einen Anspruch auf Schadenersatz (über die Vertragsleistung hinausgehend, z.B.: Anmeldegebühr bei gekauftem Auto) &lt;strong&gt;bei List&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was ist die Rechtsgrundlage?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: black;"&gt;Rechtsgrundlage: &lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/864" rel="noopener noreferrer" target="_blank" style="color: black;"&gt;§ 874 ABGB&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color: black;"&gt; &lt;/span&gt;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;&lt;strong&gt;Vorliegen &lt;/strong&gt;eines Schadens&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vertrauensschaden&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Rechtswidrigkeit&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;objektiv sorgfaltswidriges Verhalten&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Kausalität der List &lt;/strong&gt;für den Schaden &lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="color: black;"&gt;Listiges Verhalten vor kausal iSd Äquivalenztheorie&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;strong style="color: black;"&gt;Verschulden&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="color: black;"&gt;Subjektive Vorwerfbarkeit&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="color: black;"&gt;Wissentliche und willentliche Täuschung&lt;/span&gt;&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;-&amp;gt; Besteht Anspruch ja/nein? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die möglichen Rechtsfolgen bei List hinsichtlich des Vertrags?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;strong&gt;Unberührt stehen lassen&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;durch Gestaltungsrecht &lt;strong&gt;anfechten &lt;/strong&gt;und zur Gänze entfallen lassen&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;immer möglich&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;anpassen &lt;/strong&gt;(nicht immer möglich)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Nur, wenn der Vertragspartner des Getäuschten den Vertrag auch anders geschlossen hätte&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Wie ist die Fallprüfungsstufe "Irrtumsveranlassung durch einen echten Dritten" für Irrtum zu behandeln?"&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Veranlassung durch &lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(56, 190, 155);"&gt;Vertragspartner &lt;/span&gt;(oder zuzurechnende Person) -&amp;gt; &lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(56, 190, 155);"&gt;Anfechtung&lt;/span&gt;/&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(56, 190, 155);"&gt;Anpassung&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Veranlassung &lt;/span&gt;durch &lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(56, 190, 155);"&gt;echten Dritten&lt;/span&gt;: Anfechtung/Anpassung nur wenn&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/875" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(170, 160, 247);"&gt; § 875 ABGB&lt;/a&gt; zutrifft.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie ist die Fallprüfungsstufe "Täuschung durch den Vertragspartner oder durch einen echten Dritten" für List zu behandeln?"&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Täuschung durch &lt;strong&gt;Vertragspartner &lt;/strong&gt;(oder zuzurechnende Person) -&amp;gt; &lt;strong&gt;Anfechtung&lt;/strong&gt;/&lt;strong&gt;Anpassung&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Täuschung durch &lt;strong&gt;echten Dritten&lt;/strong&gt;: Anfechtung/Anpassung nur wenn&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/875" rel="noopener noreferrer" target="_blank"&gt; § 875 ABGB&lt;/a&gt; zutrifft. &lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was sind die 5 Fallprüfungsstufen für Irrtum?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Beachtlichkeit des Irrtums (Art des Irrtums)&lt;/li&gt;&lt;li&gt;Kausalität des Irrtums für den Vertragsschluss&lt;/li&gt;&lt;li&gt;Fehlendes Vertrauensschutzbedürfnis beim Gegner des Irrenden&lt;/li&gt;&lt;li&gt;Herstellen einer irrtumsfreien Lage (un/wesentlicher Irrtum)&lt;/li&gt;&lt;li&gt;Irrtumsveranlassung durch einen echten Dritten&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 5 Fallprüfungsstufen für List?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Bestehen eines Irrtums beim Getäuschten&lt;/li&gt;&lt;li&gt;Kausalität der listigen Irreführung für den Vertragsschluss&lt;/li&gt;&lt;li&gt;Rechtswidrige Irreführung&lt;/li&gt;&lt;li&gt;Vorsatz des Täuschenden&lt;/li&gt;&lt;li&gt;Täuschung durch den Vertragspartner oder durch einen echten Dritten&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mit welchen "Hilfsfragen" kann Vorsatz von Fahrlässigkeit abgegrenzt werden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;"&lt;strong&gt;Es wird schon nicht&lt;/strong&gt;" -&amp;gt; &lt;strong&gt;Fahrlässig&lt;/strong&gt;, da Folge nicht ernsthaft für möglich befunden.&lt;/li&gt;&lt;li&gt;"&lt;strong&gt;Na wenn schon&lt;/strong&gt;" -&amp;gt; &lt;strong&gt;Vorsatz&lt;/strong&gt;, da ernsthaft für möglich befunden und findet sich damit ab&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Worauf kommt es beim Vorsatz des (listigen) Täuschenden an?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nur auf den subjektiven Willen - &lt;strong&gt;wissentlich &lt;/strong&gt;+ &lt;strong&gt;willentlich &lt;/strong&gt;in den Irrtum geführt (oder belassen).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist objektiv sorgfaltswidriges Verhalten?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nicht so Handeln, wie ein ordnungsgemäßer, maßstabsgerechter, rechtstreuer Mensch an seiner Stelle&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche 3 Möglichkeiten der &lt;strong&gt;rechtswidrigen&lt;/strong&gt; &lt;strong&gt;Irreführung &lt;/strong&gt;gibt es? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;durch &lt;strong&gt;Tun&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;rechtswidrig wenn Handelnder &lt;strong&gt;objektiv sorgfaltswidrig &lt;/strong&gt;handelt und damit Irrtum herbeiführt.&lt;/li&gt;&lt;li&gt;durch &lt;strong&gt;Unterlassen&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Verletzen von Auskunftspflichten (z.B. Gesetz, Vertrag, redlicher Verkehr)&lt;/li&gt;&lt;li&gt;durch &lt;strong&gt;Ausnützen &lt;/strong&gt;eines bereits vorhandenen Irrtums&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Es gilt wie bei Unterlassen&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist List?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;List ist &lt;strong&gt;rechtswidrige &lt;/strong&gt;und &lt;strong&gt;vorsätzliche &lt;/strong&gt;Irreführung.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was bedeutet die Unerheblichkeit des Irrtums bei List?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;bei List ist &lt;strong&gt;jeder &lt;/strong&gt;der 3 &lt;strong&gt;Irrtumsarten&lt;/strong&gt;, auch Motivirrtum, &lt;strong&gt;beachtlich&lt;/strong&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Rechtsgrundlage für die Anfechtung eines Vertrages wegen List?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/870" rel="noopener noreferrer" target="_blank"&gt;§ 870 ABGB&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 4 Voraussetzungen für &lt;strong&gt;fehlendes Vertrauensschutzbedürfnis &lt;/strong&gt;beim Gegner des Irrenden?&lt;/p&gt;&lt;p&gt;Sind sie kumulativ oder alternativ?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Alternativ&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Hat &lt;strong&gt;Gegner &lt;/strong&gt;des Irrenden den Irrtum &lt;strong&gt;veranlasst&lt;/strong&gt;? &lt;strong&gt;→ kein Schutz&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Hätte dem &lt;strong&gt;Gegner&lt;/strong&gt; des Irrenden der Irrtum &lt;strong&gt;offenbar&lt;/strong&gt; &lt;strong&gt;auffallen &lt;/strong&gt;müssen? &lt;strong&gt;→&lt;/strong&gt; &lt;strong&gt;kein Schutz&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Ist der Irrtum gegenüber dem &lt;strong&gt;Gegner &lt;/strong&gt;noch &lt;strong&gt;rechtzeitig aufgeklärt &lt;/strong&gt;worden?&lt;strong&gt; → kein Schutz&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Kein gemeinsamer Irrtum (da sonst auch Gegner auf Vertrag vertraut hat und daher schon schutzwürdig wäre) &lt;strong&gt;→ kein Schutz &lt;/strong&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wann kann eine Leistung rechtsgrundlos sein?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wenn im Vertrauen auf den Vertrag eine Leistung erbracht wurde und:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;der Vertrag zum Zeitpunkt der Leistung nicht existiert hat &lt;/li&gt;&lt;li&gt;der Vertrag durch Anfechtung nachträglich mit&lt;strong&gt; ex-tunc &lt;/strong&gt;Wirkung entfällt.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine Leistung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Eine &lt;strong&gt;bewusste&amp;nbsp;&lt;/strong&gt;und&amp;nbsp;&lt;strong&gt;gewollte&amp;nbsp;&lt;/strong&gt;Vermögens&lt;strong&gt;verschiebung.&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Rechtsgrundlage für die Rückabwicklung von ex tunc aufgehobenen Verträgen?&lt;/p&gt;&lt;p&gt;Was ist die Voraussetzung für die Anwendung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/877" rel="noopener noreferrer" target="_blank"&gt;§ 877 ABGB&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Voraussetzung ist vorliegen einer &lt;strong&gt;rechtsgrundlosen Leistung&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie werden &lt;strong&gt;Umstände konkludent Vertragsinhalt &lt;/strong&gt;(und für Geschäftsirrtum gültig) wenn sie nicht explizit im Vertrag erwähnt werden? &lt;/p&gt;&lt;p&gt;Was ist die Rechtsgrundlage? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Durch die &lt;strong&gt;Vertrauenstheorie&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Verkehrsauffassung wird Vertragsinhalt, weil objektiv-redlicher Empfänger davon Kenntnis hat.&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/914" rel="noopener noreferrer" target="_blank"&gt;§§&amp;nbsp;914f ABGB&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Was sind die möglichen Rechtsfolgen von Irrtum hinsichtlich Wesentlichkeit/Unwesentlichkeit?&lt;/p&gt;</t>
   </si>
   <si>
@@ -46,7 +166,7 @@
     <t>&lt;p&gt;Was ist notwendig für die (Irrtums-)Veranlassung iSd &lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/871" rel="noopener noreferrer" target="_blank" style="color: rgb(170, 160, 247); background-color: rgb(40, 45, 88);"&gt;§ 871 ABGB&lt;/a&gt;?&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;strong&gt;Gesteigerte &lt;/strong&gt;(adäquate) &lt;strong&gt;Ursächlichkeit&lt;/strong&gt;: Der Vertragspartner des Irrenden muss &lt;strong&gt;mehr zum Irrtum beigetragen &lt;/strong&gt;haben&lt;strong&gt;, als der Irrende selbst.&lt;/strong&gt;&lt;/p&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Gesteigerte &lt;/strong&gt;(adäquate) &lt;strong&gt;Ursächlichkeit&lt;/strong&gt;: Der Vertragspartner des Irrenden muss &lt;strong&gt;mehr zum Irrtum beigetragen &lt;/strong&gt;haben&lt;strong&gt;, als der Irrende selbst.&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Oder: Unterlassen einer Aufklärungspflicht&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Was ist die Rechtsgrundlage für den Irrtum?&lt;/p&gt;</t>
@@ -59,12 +179,6 @@
   </si>
   <si>
     <t>&lt;p&gt;Irrtum ist Kausal, wenn der Irrende &lt;strong&gt;bei Kenntnis&lt;/strong&gt; &lt;strong&gt;der wahren&lt;/strong&gt; &lt;strong&gt;Sachlage &lt;/strong&gt;den Vertrag &lt;strong&gt;nicht in der konkreten Gestalt&lt;/strong&gt; geschlossen hätte.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie werden &lt;strong&gt;Umstände konkludent Vertragsinhalt &lt;/strong&gt;(und für Geschäftsirrtum gültig) wenn sie nicht explizit im Vertrag erwähnt werden? &lt;/p&gt;&lt;p&gt;Was ist die Rechtsgrundlage? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Durch die &lt;strong&gt;Vertrauenstheorie&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Verkehrsauffassung wird Vertragsinhalt, weil objektiv-redlicher Empfänger davon Kenntnis hat.&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/914" rel="noopener noreferrer" target="_blank"&gt;§§&amp;nbsp;914f ABGB&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was ist der &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Motiv&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;irrtum?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Wann ist er beachtlich? &lt;/span&gt;&lt;/p&gt;</t>
@@ -502,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B36"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -644,6 +758,158 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
